--- a/datalist/pheromoneLong.xlsx
+++ b/datalist/pheromoneLong.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10000" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="5840" yWindow="460" windowWidth="27180" windowHeight="17160" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="daf22_npr1" sheetId="1" r:id="rId1"/>
     <sheet name="daf22" sheetId="2" r:id="rId2"/>
     <sheet name="npr1" sheetId="3" r:id="rId3"/>
     <sheet name="N2" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="298">
   <si>
     <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.1_comp2_DA609_N2/1.1_comp2_DA609_N2_Ch1_04062018_232157.hdf5</t>
   </si>
@@ -69,18 +68,6 @@
     <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.1_comp2_DA609_N2/1.1_comp2_DA609_N2_Ch2_04062018_182155.hdf5</t>
   </si>
   <si>
-    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.1_comp2_DA609_N2/1.1_comp2_DA609_N2_Ch2_04062018_192156.hdf5</t>
-  </si>
-  <si>
-    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.1_comp2_DA609_N2/1.1_comp2_DA609_N2_Ch2_04062018_202157.hdf5</t>
-  </si>
-  <si>
-    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.1_comp2_DA609_N2/1.1_comp2_DA609_N2_Ch2_04062018_212158.hdf5</t>
-  </si>
-  <si>
-    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.1_comp2_DA609_N2/1.1_comp2_DA609_N2_Ch2_04062018_222158.hdf5</t>
-  </si>
-  <si>
     <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.1_comp3_AX994_DR476/1.1_comp3_AX994_DR476_Ch1_04062018_161540.hdf5</t>
   </si>
   <si>
@@ -135,10 +122,808 @@
     <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.1_comp3_AX994_DR476/1.1_comp3_AX994_DR476_Ch2_05062018_001551.hdf5</t>
   </si>
   <si>
-    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.1_comp2_DA609_N2/1.1_comp2_DA609_N2_Ch2_04062018_232159.hdf5</t>
-  </si>
-  <si>
-    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.1_comp2_DA609_N2/1.1_comp2_DA609_N2_Ch2_05062018_002159.hdf5</t>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch1_05062018_155709.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch1_05062018_165712.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch1_05062018_175712.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch1_05062018_185714.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch1_05062018_195714.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch1_05062018_205715.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch1_05062018_215716.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch1_05062018_225717.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch1_05062018_235717.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch1_06062018_005718.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch1_06062018_015719.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch1_06062018_025720.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch1_06062018_035720.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch1_06062018_045721.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch1_06062018_055722.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch2_05062018_155709.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch2_05062018_165714.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch2_05062018_175715.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch2_05062018_185716.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch2_05062018_195717.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch2_05062018_205717.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch2_05062018_215719.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch2_05062018_225719.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch2_05062018_235720.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch2_06062018_005721.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch2_06062018_015721.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch2_06062018_025722.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch2_06062018_035723.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch2_06062018_045723.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp3_AX994_DR476/1.2_comp3_AX994_DR476_Ch2_06062018_055724.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp2_DA609_N2/1.2_comp2_DA609_N2_Ch1_05062018_160540.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp2_DA609_N2/1.2_comp2_DA609_N2_Ch1_05062018_170542.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp2_DA609_N2/1.2_comp2_DA609_N2_Ch1_05062018_180543.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp2_DA609_N2/1.2_comp2_DA609_N2_Ch1_05062018_190543.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp2_DA609_N2/1.2_comp2_DA609_N2_Ch1_05062018_200544.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp2_DA609_N2/1.2_comp2_DA609_N2_Ch1_05062018_210545.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp2_DA609_N2/1.2_comp2_DA609_N2_Ch1_05062018_220546.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp2_DA609_N2/1.2_comp2_DA609_N2_Ch1_05062018_230546.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp2_DA609_N2/1.2_comp2_DA609_N2_Ch1_06062018_000547.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp2_DA609_N2/1.2_comp2_DA609_N2_Ch2_05062018_160540.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp2_DA609_N2/1.2_comp2_DA609_N2_Ch2_05062018_170544.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.2_comp2_DA609_N2/1.2_comp2_DA609_N2_Ch2_05062018_180545.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp2_DA609_N2/1.3_comp2_DA609_N2_Ch1_06062018_162312.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp2_DA609_N2/1.3_comp2_DA609_N2_Ch1_06062018_172315.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp2_DA609_N2/1.3_comp2_DA609_N2_Ch1_06062018_182315.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp2_DA609_N2/1.3_comp2_DA609_N2_Ch1_06062018_192317.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp2_DA609_N2/1.3_comp2_DA609_N2_Ch1_06062018_202317.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp2_DA609_N2/1.3_comp2_DA609_N2_Ch1_06062018_212318.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp2_DA609_N2/1.3_comp2_DA609_N2_Ch1_06062018_222319.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp2_DA609_N2/1.3_comp2_DA609_N2_Ch1_06062018_232320.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp2_DA609_N2/1.3_comp2_DA609_N2_Ch1_07062018_002320.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp2_DA609_N2/1.3_comp2_DA609_N2_Ch2_06062018_162312.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp2_DA609_N2/1.3_comp2_DA609_N2_Ch2_06062018_172317.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp2_DA609_N2/1.3_comp2_DA609_N2_Ch2_06062018_182317.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp2_DA609_N2/1.3_comp2_DA609_N2_Ch2_06062018_192319.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch1_06062018_162151.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch1_06062018_182155.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch1_06062018_192155.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch1_06062018_202156.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch1_06062018_212157.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch1_06062018_222158.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch1_06062018_232158.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch1_07062018_002159.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch1_07062018_012200.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch1_07062018_022200.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch1_07062018_032201.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch1_07062018_042202.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch1_07062018_052203.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch1_07062018_062203.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch2_06062018_162151.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch2_06062018_172156.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch2_06062018_182157.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch2_06062018_192157.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch2_06062018_202158.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch2_06062018_212159.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch2_06062018_222200.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch2_06062018_232200.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch2_07062018_002201.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch2_07062018_012202.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch2_07062018_022203.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch2_07062018_032204.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch2_07062018_042205.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch2_07062018_052206.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.3_comp3_AX994_DR476/1.3_comp3_AX994_DR476_Ch2_07062018_062206.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch1_07062018_162845.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch1_07062018_172848.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch1_07062018_182849.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch1_07062018_192850.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch1_07062018_202851.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch1_07062018_212851.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch1_07062018_222852.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch1_07062018_232853.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch1_08062018_002854.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch1_08062018_012854.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch1_08062018_022855.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch1_08062018_032856.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch1_08062018_042857.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch1_08062018_052857.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch1_08062018_062858.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch2_07062018_162845.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch2_07062018_172850.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch2_07062018_182851.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch2_07062018_192852.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch2_07062018_202853.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch2_07062018_212853.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch2_07062018_222854.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch2_07062018_232855.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch2_08062018_002856.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch2_08062018_012857.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch2_08062018_022857.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch2_08062018_032859.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch2_08062018_042859.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch2_08062018_052900.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp3_AX994_DR476/1.4_comp3_AX994_DR476_Ch2_08062018_062901.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp2_DA609_N2/1.4_comp2_DA609_N2_Ch1_07062018_163101.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp2_DA609_N2/1.4_comp2_DA609_N2_Ch1_07062018_173104.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp2_DA609_N2/1.4_comp2_DA609_N2_Ch1_07062018_183105.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp2_DA609_N2/1.4_comp2_DA609_N2_Ch1_07062018_193105.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp2_DA609_N2/1.4_comp2_DA609_N2_Ch2_07062018_163101.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp2_DA609_N2/1.4_comp2_DA609_N2_Ch2_07062018_173106.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/1.4_comp2_DA609_N2/1.4_comp2_DA609_N2_Ch2_07062018_183107.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch1_08062018_161017.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch1_08062018_171020.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch1_08062018_181021.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch1_08062018_191022.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch1_08062018_201022.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch1_08062018_211023.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch1_08062018_221024.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch1_08062018_231025.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch1_09062018_001026.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch1_09062018_011027.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch1_09062018_021027.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch1_09062018_031028.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch1_09062018_041029.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch1_09062018_051029.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch2_08062018_161017.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch2_08062018_171022.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch2_08062018_181023.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch2_08062018_191024.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch2_08062018_201024.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch2_08062018_211025.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp3_AX994_DR476/2.1_comp3_AX994_DR476_Ch2_08062018_221026.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp2_DA609_N2/2.1_comp2_DA609_N2_Ch1_08062018_161144.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp2_DA609_N2/2.1_comp2_DA609_N2_Ch1_08062018_171146.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp2_DA609_N2/2.1_comp2_DA609_N2_Ch1_08062018_181147.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp2_DA609_N2/2.1_comp2_DA609_N2_Ch1_08062018_191148.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp2_DA609_N2/2.1_comp2_DA609_N2_Ch1_08062018_201148.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp2_DA609_N2/2.1_comp2_DA609_N2_Ch1_08062018_211149.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp2_DA609_N2/2.1_comp2_DA609_N2_Ch2_08062018_161144.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.1_comp2_DA609_N2/2.1_comp2_DA609_N2_Ch2_08062018_171148.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch1_09062018_174637.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch1_09062018_184640.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch1_09062018_194641.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch1_09062018_204641.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch1_09062018_214642.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch1_09062018_224643.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch1_09062018_234644.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch1_10062018_004645.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch1_10062018_014645.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch1_10062018_024646.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch1_10062018_034647.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch1_10062018_044648.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch1_10062018_054648.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch1_10062018_064649.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch1_10062018_074650.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch2_09062018_174637.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch2_09062018_184642.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch2_09062018_194643.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch2_09062018_204643.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch2_09062018_214644.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch2_09062018_224645.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch2_09062018_234646.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch2_10062018_004647.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch2_10062018_014647.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch2_10062018_024648.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch2_10062018_034649.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch2_10062018_044650.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch2_10062018_054651.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch2_10062018_064651.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp2_AX994_DR476/2.2_comp2_AX994_DR476_Ch2_10062018_074652.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp3_DA609_N2/2.2_comp3_DA609_N2_Ch1_09062018_174048.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp3_DA609_N2/2.2_comp3_DA609_N2_Ch1_09062018_184051.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp3_DA609_N2/2.2_comp3_DA609_N2_Ch1_09062018_194051.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp3_DA609_N2/2.2_comp3_DA609_N2_Ch1_09062018_204052.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp3_DA609_N2/2.2_comp3_DA609_N2_Ch2_09062018_174048.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.2_comp3_DA609_N2/2.2_comp3_DA609_N2_Ch2_09062018_184053.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch1_10062018_165030.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch1_10062018_175032.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch1_10062018_185033.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch1_10062018_195034.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch1_10062018_205035.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch1_10062018_215035.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch1_10062018_225036.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch1_10062018_235037.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch1_11062018_005038.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch1_11062018_015038.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch1_11062018_025039.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch1_11062018_035040.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch1_11062018_045041.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch1_11062018_055042.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch1_11062018_065042.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch2_10062018_165030.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch2_10062018_175035.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch2_10062018_185035.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch2_10062018_195036.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch2_10062018_205037.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch2_10062018_215038.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch2_10062018_225039.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch2_10062018_235039.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch2_11062018_005040.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch2_11062018_015041.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch2_11062018_025041.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch2_11062018_035042.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch2_11062018_045043.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch2_11062018_055044.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp1_AX994_DR476/2.3_comp1_AX994_DR476_Ch2_11062018_065044.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp2_DA609_N2/2.3_comp2_DA609_N2_Ch1_10062018_164209.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp2_DA609_N2/2.3_comp2_DA609_N2_Ch1_10062018_174212.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp2_DA609_N2/2.3_comp2_DA609_N2_Ch1_10062018_184213.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp2_DA609_N2/2.3_comp2_DA609_N2_Ch1_10062018_194213.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp2_DA609_N2/2.3_comp2_DA609_N2_Ch1_10062018_204214.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp2_DA609_N2/2.3_comp2_DA609_N2_Ch1_10062018_214215.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp2_DA609_N2/2.3_comp2_DA609_N2_Ch1_10062018_224216.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp2_DA609_N2/2.3_comp2_DA609_N2_Ch1_10062018_234216.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp2_DA609_N2/2.3_comp2_DA609_N2_Ch2_10062018_164209.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp2_DA609_N2/2.3_comp2_DA609_N2_Ch2_10062018_174214.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp2_DA609_N2/2.3_comp2_DA609_N2_Ch2_10062018_184215.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.3_comp2_DA609_N2/2.3_comp2_DA609_N2_Ch2_10062018_194216.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch1_11062018_160207.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch1_11062018_170210.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch1_11062018_180210.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch1_11062018_190211.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch1_11062018_200211.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch1_11062018_210212.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch1_11062018_220213.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch1_11062018_230214.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch1_12062018_000214.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch1_12062018_010215.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch1_12062018_020216.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch1_12062018_030217.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch1_12062018_040217.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch1_12062018_050218.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch1_12062018_060219.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch2_11062018_170212.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch2_11062018_160207.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch2_11062018_180212.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch2_11062018_190213.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch2_11062018_200213.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch2_11062018_210214.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch2_11062018_220215.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch2_11062018_230216.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch2_12062018_000217.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch2_12062018_010217.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch2_12062018_020218.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch2_12062018_030219.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch2_12062018_040220.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch2_12062018_050221.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp3_AX994_DR476/2.4_comp3_AX994_DR476_Ch2_12062018_060222.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp2_DA609_N2/2.4_comp2_DA609_N2_Ch1_11062018_160333.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp2_DA609_N2/2.4_comp2_DA609_N2_Ch1_11062018_170335.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp2_DA609_N2/2.4_comp2_DA609_N2_Ch1_11062018_180336.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp2_DA609_N2/2.4_comp2_DA609_N2_Ch1_11062018_190337.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp2_DA609_N2/2.4_comp2_DA609_N2_Ch1_11062018_200338.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp2_DA609_N2/2.4_comp2_DA609_N2_Ch1_11062018_210338.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp2_DA609_N2/2.4_comp2_DA609_N2_Ch1_11062018_220339.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp2_DA609_N2/2.4_comp2_DA609_N2_Ch2_11062018_160333.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp2_DA609_N2/2.4_comp2_DA609_N2_Ch2_11062018_170337.hdf5</t>
+  </si>
+  <si>
+    <t>/Volumes/behavgenom_archive$/Serena/pheromonesLong/MaskedVideos/2.4_comp2_DA609_N2/2.4_comp2_DA609_N2_Ch2_11062018_180338.hdf5</t>
   </si>
 </sst>
 </file>
@@ -453,15 +1238,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="126" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -472,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -489,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -506,7 +1291,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -523,7 +1308,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -540,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -557,7 +1342,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -574,7 +1359,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -591,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -608,13 +1393,1879 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
         <v>89940</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>89651</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>89903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>89940</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>89933</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>89933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>89943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>89917</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>89935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>89936</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>89915</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>89936</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>89937</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>89932</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>89943</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>89941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>90024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>89940</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>89924</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>89938</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>89935</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>89941</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>89927</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>89937</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>89938</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>89935</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>89940</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>89932</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>89926</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>89922</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>89942</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>89952</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>89942</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>89945</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>89936</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>89945</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>89943</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>89938</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>89941</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>89938</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>89941</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>89937</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>89918</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>89932</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>89937</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>89937</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>89620</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>89941</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>89936</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>89941</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>89945</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>89935</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>89948</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>89936</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>89935</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>89925</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>89927</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>89949</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>89933</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>15</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>195</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>90031</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>89938</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>6</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>197</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>89950</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>89946</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>199</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>89950</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>6</v>
+      </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>200</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>89951</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>89952</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>202</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>89947</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>6</v>
+      </c>
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>203</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>89941</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>89951</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>205</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>89942</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>206</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>89954</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>207</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>89941</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>6</v>
+      </c>
+      <c r="B89">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>208</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>89951</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>6</v>
+      </c>
+      <c r="B90">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>89949</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>216</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>89936</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>217</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>89943</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>7</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>218</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>89942</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>7</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>219</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>89945</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>7</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>220</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>89943</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>7</v>
+      </c>
+      <c r="B96">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>221</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>89945</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>7</v>
+      </c>
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>222</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>89940</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>7</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>223</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>89946</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>7</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>224</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>89948</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>7</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>225</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>89948</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>7</v>
+      </c>
+      <c r="B101">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>226</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>89944</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>7</v>
+      </c>
+      <c r="B102">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>227</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>89941</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>7</v>
+      </c>
+      <c r="B103">
+        <v>13</v>
+      </c>
+      <c r="C103" t="s">
+        <v>228</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>89941</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>7</v>
+      </c>
+      <c r="B104">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>229</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>89946</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>230</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>89945</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>8</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>258</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>89935</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>259</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>89907</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>8</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>260</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>89942</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
+        <v>261</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>89947</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>262</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>89947</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>8</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>263</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>89948</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>8</v>
+      </c>
+      <c r="B112">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>264</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>89947</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>8</v>
+      </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>265</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>89943</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>8</v>
+      </c>
+      <c r="B114">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>266</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>89940</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>8</v>
+      </c>
+      <c r="B115">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>267</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>89946</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>8</v>
+      </c>
+      <c r="B116">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>268</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>89948</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>8</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>269</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>89945</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>8</v>
+      </c>
+      <c r="B118">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>270</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>89945</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>8</v>
+      </c>
+      <c r="B119">
+        <v>14</v>
+      </c>
+      <c r="C119" t="s">
+        <v>271</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>89938</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>8</v>
+      </c>
+      <c r="B120">
+        <v>15</v>
+      </c>
+      <c r="C120" t="s">
+        <v>272</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>89933</v>
       </c>
     </row>
   </sheetData>
@@ -624,13 +3275,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="133" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
@@ -640,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -657,7 +3311,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -674,7 +3328,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -691,7 +3345,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -708,7 +3362,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -725,7 +3379,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -742,7 +3396,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -759,7 +3413,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -776,13 +3430,1858 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
         <v>89944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>89676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>89613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>89945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>89936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>89941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>89946</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>89926</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>89937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>89944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>89919</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>89946</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>89943</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>89948</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>89949</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>89944</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>90025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>89949</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>89596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>89944</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>89937</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>89949</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>89929</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>89946</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>89942</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>89950</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>89946</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>89934</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>89933</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>89924</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>89951</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>89628</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>89944</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>89953</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>89938</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>89954</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>89947</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>89949</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>89945</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>89941</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>89949</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>60440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>89891</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>89617</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>89938</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>89947</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>89948</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>170</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>89943</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>40750</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>13</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>15</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>90027</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>89940</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>6</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>89947</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>183</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>89948</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>184</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>89945</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>6</v>
+      </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>89950</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>186</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>89945</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>89945</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>6</v>
+      </c>
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>89943</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>189</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>89947</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>190</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>89943</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>191</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>89946</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>192</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>89940</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>6</v>
+      </c>
+      <c r="B89">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>89943</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>6</v>
+      </c>
+      <c r="B90">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>194</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>89946</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>231</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>89939</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>232</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>89941</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>7</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>233</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>89946</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>7</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>234</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>89944</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>7</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>235</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>89949</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>7</v>
+      </c>
+      <c r="B96">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>236</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>89946</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>7</v>
+      </c>
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>237</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>89947</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>7</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>238</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>89948</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>7</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>239</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>89946</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>7</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>240</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>89951</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>7</v>
+      </c>
+      <c r="B101">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>241</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>89943</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>7</v>
+      </c>
+      <c r="B102">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>242</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>89946</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>7</v>
+      </c>
+      <c r="B103">
+        <v>13</v>
+      </c>
+      <c r="C103" t="s">
+        <v>243</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>89941</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>7</v>
+      </c>
+      <c r="B104">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>244</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>89953</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>245</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>89946</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>8</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>274</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>89942</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>273</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>89907</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>8</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>275</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>89944</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
+        <v>276</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>89953</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>277</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>89949</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>8</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>278</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>89955</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>8</v>
+      </c>
+      <c r="B112">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>279</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>89949</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>8</v>
+      </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>280</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>89952</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>8</v>
+      </c>
+      <c r="B114">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>281</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>89941</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>8</v>
+      </c>
+      <c r="B115">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>282</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>89956</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>8</v>
+      </c>
+      <c r="B116">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>283</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>89952</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>8</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>284</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>89956</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>8</v>
+      </c>
+      <c r="B118">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>285</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>89951</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>8</v>
+      </c>
+      <c r="B119">
+        <v>14</v>
+      </c>
+      <c r="C119" t="s">
+        <v>286</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>89940</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>8</v>
+      </c>
+      <c r="B120">
+        <v>15</v>
+      </c>
+      <c r="C120" t="s">
+        <v>287</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>89939</v>
       </c>
     </row>
   </sheetData>
@@ -792,13 +5291,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="123.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
@@ -950,6 +5452,1144 @@
         <v>0</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>89960</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>89890</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>89940</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>89937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>89938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>89941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>89935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>89940</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>24793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>90025</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>89945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>89925</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>89942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>89946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>89943</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>89940</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>89945</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>87376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>90011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>89940</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>89906</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>90009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>89932</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>89947</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>89943</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>89947</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>67634</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>90016</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>89943</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>89947</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>77422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>246</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>90004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>247</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>89940</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>248</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>89943</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>249</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>89945</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>250</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>89947</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>89946</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>252</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>89947</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>253</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>62200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>288</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>90004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>289</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>89940</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>290</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>89947</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>291</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>89942</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>292</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>89943</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>89950</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>294</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>25382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>294</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>8</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
         <v>0</v>
       </c>
     </row>
@@ -960,15 +6600,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="141" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1029,9 +6669,6 @@
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4">
         <v>0</v>
       </c>
@@ -1041,64 +6678,61 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>89961</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>89888</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>71213</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1109,34 +6743,395 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
+        <v>90026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>89947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>89928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>34018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>90015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>89941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>88431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>90009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>79785</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>90017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>79229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>90004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>89946</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>89943</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>37222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>90003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>89946</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>297</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>69133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>